--- a/Documents/Расчет.xlsx
+++ b/Documents/Расчет.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andrey.Home-PC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey.Home-PC\LoadTestForIBS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCA0E8B-DE2B-43BD-B2C3-77EE0802261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAA738A-A226-4178-A38C-C8045AF09333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDAD409-AED8-4AF2-986C-1BC78A5151D1}"/>
+    <workbookView xWindow="28680" yWindow="-2820" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDAD409-AED8-4AF2-986C-1BC78A5151D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t xml:space="preserve">Покупка </t>
   </si>
@@ -179,6 +178,12 @@
   </si>
   <si>
     <t>% Соотвествия расчетанной интенсивности статистики</t>
+  </si>
+  <si>
+    <t>логина</t>
+  </si>
+  <si>
+    <t>логаут</t>
   </si>
 </sst>
 </file>
@@ -225,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +243,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -665,11 +682,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -745,12 +795,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1065,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632036B1-6C54-4D94-9C1E-BCB13E98315A}">
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,12 +1208,20 @@
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="46"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
+      <c r="Q2" s="14">
+        <v>53</v>
+      </c>
+      <c r="R2" s="15">
+        <v>39</v>
+      </c>
+      <c r="S2" s="15">
+        <f>Q2+R2</f>
+        <v>92</v>
+      </c>
       <c r="T2" s="15">
         <v>1</v>
       </c>
@@ -1194,6 +1257,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="6"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="11" t="s">
         <v>22</v>
       </c>
@@ -1272,6 +1336,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
+      <c r="O5" s="55"/>
       <c r="P5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1350,6 +1415,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
+      <c r="O7" s="49"/>
       <c r="P7" s="11" t="s">
         <v>26</v>
       </c>
@@ -1389,6 +1455,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
+      <c r="O8" s="49"/>
       <c r="P8" s="11" t="s">
         <v>27</v>
       </c>
@@ -1663,290 +1730,304 @@
       <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="44">
+        <v>1</v>
+      </c>
+      <c r="D23" s="44">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="44">
-        <v>1</v>
-      </c>
-      <c r="D22" s="44">
-        <v>1</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B27" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="1:4" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="15">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="50"/>
-    </row>
-    <row r="32" spans="1:8" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="13">
+      <c r="B34" s="13">
         <v>800</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B35" s="11">
         <v>400</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="11">
-        <v>600</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="11">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B37" s="11">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B38" s="11">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="11">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="11">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="11">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="11">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" s="11">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="11">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="11">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="11">
+        <v>200</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B47" s="23">
         <v>480</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="28"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39" t="s">
+      <c r="C47" s="24"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="32"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Расчет.xlsx
+++ b/Documents/Расчет.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey.Home-PC\LoadTestForIBS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAA738A-A226-4178-A38C-C8045AF09333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575B29C-C77B-4851-B78E-D69B45D622FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2820" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDAD409-AED8-4AF2-986C-1BC78A5151D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t xml:space="preserve">Покупка </t>
   </si>
@@ -96,24 +96,9 @@
     <t>UC2_View_Products</t>
   </si>
   <si>
-    <t>UC4_Help_Chat</t>
-  </si>
-  <si>
-    <t>UC3_Send_Help</t>
-  </si>
-  <si>
     <t>UC5_Delete_From_Cart</t>
   </si>
   <si>
-    <t>UC6_Login</t>
-  </si>
-  <si>
-    <t>UC7_Register</t>
-  </si>
-  <si>
-    <t>UC8_Search</t>
-  </si>
-  <si>
     <t>Операции</t>
   </si>
   <si>
@@ -184,6 +169,15 @@
   </si>
   <si>
     <t>логаут</t>
+  </si>
+  <si>
+    <t>UC3_Login</t>
+  </si>
+  <si>
+    <t>UC4_Register</t>
+  </si>
+  <si>
+    <t>UC6_Search</t>
   </si>
 </sst>
 </file>
@@ -230,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,12 +243,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -719,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -796,16 +784,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1123,7 +1110,7 @@
   <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,52 +1129,52 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" s="30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="V1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="X1" s="22"/>
     </row>
@@ -1213,14 +1200,14 @@
         <v>21</v>
       </c>
       <c r="Q2" s="14">
-        <v>53</v>
+        <f>S2-R2</f>
+        <v>14</v>
       </c>
       <c r="R2" s="15">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S2" s="15">
-        <f>Q2+R2</f>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="T2" s="15">
         <v>1</v>
@@ -1261,9 +1248,16 @@
       <c r="P3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="Q3" s="14">
+        <f t="shared" ref="Q3:Q7" si="0">S3-R3</f>
+        <v>15</v>
+      </c>
+      <c r="R3" s="1">
+        <v>39</v>
+      </c>
+      <c r="S3" s="15">
+        <v>54</v>
+      </c>
       <c r="T3" s="1">
         <v>1</v>
       </c>
@@ -1271,11 +1265,11 @@
         <v>1</v>
       </c>
       <c r="V3" s="4">
-        <f t="shared" ref="V3:V9" si="0">U3/X$2</f>
+        <f t="shared" ref="V3:V7" si="1">U3/X$2</f>
         <v>0.1</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" ref="W3:W9" si="1">60/(T3)</f>
+        <f t="shared" ref="W3:W7" si="2">60/(T3)</f>
         <v>60</v>
       </c>
       <c r="X3" s="6"/>
@@ -1297,12 +1291,20 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="6"/>
+      <c r="O4" s="49"/>
       <c r="P4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R4" s="1">
+        <v>41</v>
+      </c>
+      <c r="S4" s="15">
+        <v>52</v>
+      </c>
       <c r="T4" s="1">
         <v>1</v>
       </c>
@@ -1310,11 +1312,11 @@
         <v>1</v>
       </c>
       <c r="V4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="X4" s="6"/>
@@ -1336,25 +1338,32 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
-      <c r="O5" s="55"/>
+      <c r="O5" s="49"/>
       <c r="P5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R5" s="1">
+        <v>26</v>
+      </c>
+      <c r="S5" s="15">
+        <v>33</v>
+      </c>
       <c r="T5" s="1">
         <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="W5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="X5" s="6"/>
@@ -1376,29 +1385,37 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="6"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R6" s="1">
+        <v>24</v>
+      </c>
+      <c r="S6" s="15">
+        <v>30</v>
+      </c>
       <c r="T6" s="1">
         <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="W6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -1416,27 +1433,34 @@
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
       <c r="O7" s="49"/>
-      <c r="P7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>2</v>
-      </c>
-      <c r="V7" s="4">
+      <c r="P7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="14">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="W7" s="2">
+        <v>15</v>
+      </c>
+      <c r="R7" s="25">
+        <v>5</v>
+      </c>
+      <c r="S7" s="15">
+        <v>20</v>
+      </c>
+      <c r="T7" s="25">
+        <v>1</v>
+      </c>
+      <c r="U7" s="25">
+        <v>1</v>
+      </c>
+      <c r="V7" s="26">
         <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="W7" s="27">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="X7" s="6"/>
+      <c r="X7" s="28"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
@@ -1455,30 +1479,22 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
-        <v>2</v>
-      </c>
-      <c r="V8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="W8" s="2">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="X8" s="6"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="31">
+        <f>SUM(V2:V7)</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="W8" s="30"/>
+      <c r="X8" s="32"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
@@ -1495,29 +1511,8 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="46"/>
-      <c r="P9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25">
-        <v>1</v>
-      </c>
-      <c r="U9" s="25">
-        <v>1</v>
-      </c>
-      <c r="V9" s="26">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="W9" s="27">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="X9" s="28"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
@@ -1534,20 +1529,6 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="6"/>
-      <c r="P10" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="31">
-        <f>SUM(V2:V9)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="W10" s="30"/>
-      <c r="X10" s="32"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1730,25 +1711,25 @@
       <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
+        <v>46</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -1853,27 +1834,27 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="51"/>
+      <c r="A32" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2018,7 +1999,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="33"/>
